--- a/inst/extdata/Data_entry/Pantringshof_final.xlsx
+++ b/inst/extdata/Data_entry/Pantringshof_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mzamzo\Documents\R\git\r2q\inst\extdata\Data_entry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245997FF-0449-4D6E-B226-17DE3325E899}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93232D2-4359-4CD7-9292-3F3CC1BF69BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="110" windowWidth="19080" windowHeight="6820" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="110" windowWidth="19080" windowHeight="6830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="site_data" sheetId="1" r:id="rId1"/>
@@ -712,6 +712,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -736,7 +737,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1044,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1076,13 +1076,13 @@
       <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1128,7 +1128,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>0.04</v>
+        <v>0.25</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>6</v>
@@ -1146,7 +1146,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="7">
-        <v>0.54</v>
+        <v>1</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>9</v>
@@ -1164,7 +1164,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>5000</v>
+        <v>430</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>12</v>
@@ -1190,13 +1190,13 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="48"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -1258,7 +1258,7 @@
         <v>14</v>
       </c>
       <c r="D13" s="8">
-        <v>5.2</v>
+        <v>56.5</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>68</v>
@@ -1276,7 +1276,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="29">
-        <v>1.26</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>70</v>
@@ -1294,7 +1294,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="29">
-        <v>1.26</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="E15" s="30" t="s">
         <v>75</v>
@@ -1395,15 +1395,15 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -1427,7 +1427,9 @@
       <c r="B2" s="25">
         <v>0.75</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="26">
+        <v>0</v>
+      </c>
       <c r="D2" s="26">
         <v>0</v>
       </c>
@@ -1439,7 +1441,9 @@
       <c r="B3" s="25">
         <v>0.71</v>
       </c>
-      <c r="C3" s="26"/>
+      <c r="C3" s="26">
+        <v>0.68</v>
+      </c>
       <c r="D3" s="26">
         <v>0</v>
       </c>
@@ -1451,7 +1455,9 @@
       <c r="B4" s="25">
         <v>0.73</v>
       </c>
-      <c r="C4" s="26"/>
+      <c r="C4" s="26">
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="D4" s="26">
         <v>0</v>
       </c>
@@ -1463,7 +1469,9 @@
       <c r="B5" s="25">
         <v>0.94</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="26">
+        <v>0</v>
+      </c>
       <c r="D5" s="26">
         <v>0</v>
       </c>
@@ -1475,7 +1483,10 @@
       <c r="B6" s="33">
         <v>0</v>
       </c>
-      <c r="C6" s="26"/>
+      <c r="C6" s="26">
+        <f>1-SUM(C2:C5)</f>
+        <v>0.25</v>
+      </c>
       <c r="D6" s="33"/>
     </row>
   </sheetData>
@@ -1494,18 +1505,18 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.08984375" customWidth="1"/>
-    <col min="9" max="9" width="9.6328125" customWidth="1"/>
+    <col min="8" max="8" width="6.1796875" customWidth="1"/>
+    <col min="9" max="9" width="9.54296875" customWidth="1"/>
     <col min="10" max="10" width="13.54296875" customWidth="1"/>
-    <col min="11" max="11" width="15.6328125" customWidth="1"/>
-    <col min="12" max="12" width="16.90625" customWidth="1"/>
-    <col min="13" max="53" width="10.90625" style="41"/>
+    <col min="11" max="11" width="15.54296875" customWidth="1"/>
+    <col min="12" max="12" width="16.81640625" customWidth="1"/>
+    <col min="13" max="53" width="10.81640625" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1516,14 +1527,14 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
       <c r="G1" s="41"/>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
@@ -2953,7 +2964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -3255,7 +3266,7 @@
       <c r="C22" s="22">
         <v>0.12</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="42" t="s">
         <v>116</v>
       </c>
     </row>
